--- a/fichamento-1.xlsx
+++ b/fichamento-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1F819E-48EB-4EAE-BED0-F224C92AB10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E12654-5420-4F4B-9886-0B589931F303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Número</t>
   </si>
@@ -145,6 +145,40 @@
   </si>
   <si>
     <t>Na verdade, não se trata de um artigo, mas sim de um tópico criado em um site que fala sobre o tema. Ele me chamou a atenção, pois demonstra na prática o uso do paralelismo, mas não apresenta uma técnica específica de como programar. Acredito que seja importante para ajudar no desenvolvimento do programa</t>
+  </si>
+  <si>
+    <t>No sistema CPAR, os custos referentes à criação de processos e ao acesso à memória compartilhada,
+foram amenizados, pela adoção de uma combinação das técnicas aqui referenciadas como
+“microtasking” e “macrotasking”. A técnica “macrotasking”ou “multitasking”, consiste em
+particionar o programa em múltiplas macrotarefas, as quais devem envolver uma computação
+significativa, caracterizando uma granularidade grossa, tal que o custo adicional não inviabilize a
+obtenção de um bom desempenho. Em cada macrotarefa podem estar presentes múltiplas
+microtarefas, que exploram o paralelismo em uma granularidade média ou fina, no nível de laços ou
+blocos de instruções paralelos.</t>
+  </si>
+  <si>
+    <t>Ele explica o uso de microtasking e macrotasking. Essa técnica que é justamente abordada na linguagem ABAP e que poderá ser usada na execução de paralelismo</t>
+  </si>
+  <si>
+    <t>Modelos de programação baseados em variáveis compartilhadas permitem implementações com menor complexidade em relação aos modelos com passagem de mensagem. Entretanto, as leituras e escritas dessas variáveis devem ser feitas, considerando algumas restrições. Uma leitura e escrita ou múltiplas escritas não podem ser executadas simultaneamente. Isto exige a utilização de uma seção crítica envolvendo o acesso a variáveis compartilhadas. A exclusão mútua é um mecanismo que implementa a seção crítica, garantindo que uma seqüência de comandos seja executada exclusivamente por um processo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O artigo aborda sobre como podemos criar um sistema de log de cada task criada sem comprometer o sistema </t>
+  </si>
+  <si>
+    <t>LM Sato, ET Midorikawa, H Senger</t>
+  </si>
+  <si>
+    <t>Introdução a Programação Paralela e Distribuída</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Paralelismo</t>
+  </si>
+  <si>
+    <t>https://www.academia.edu/download/39571064/apost-JAI-96.pdf</t>
   </si>
 </sst>
 </file>
@@ -275,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -307,6 +341,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -659,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -668,7 +705,8 @@
     <col min="1" max="1" width="7.796875" style="1" customWidth="1"/>
     <col min="2" max="3" width="20.796875" style="1" customWidth="1"/>
     <col min="4" max="5" width="35.796875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="15.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.796875" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.796875" style="1" customWidth="1"/>
     <col min="10" max="11" width="15.796875" style="1" customWidth="1"/>
@@ -820,39 +858,71 @@
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+      <c r="H4" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
       <c r="K4" s="10"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="M4" s="9">
+        <v>2025</v>
+      </c>
       <c r="N4" s="9"/>
-      <c r="O4" s="11"/>
+      <c r="O4" s="12" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="7">
+        <v>2025</v>
+      </c>
       <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="O5" s="12" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="80" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
@@ -1749,6 +1819,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="O5" r:id="rId1" xr:uid="{942D685A-CBC4-4341-BA01-99EAE71CA322}"/>
+    <hyperlink ref="O4" r:id="rId2" xr:uid="{BC53EB80-48D9-4A91-924C-7660EB8253FF}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
